--- a/src/assets/files/FormatoAlumnos.xlsx
+++ b/src/assets/files/FormatoAlumnos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\PEESAD PROD\PORTAL\peesad-panel\src\assets\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC65F0F-34D4-4283-B12F-6F2024B41B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="422">
   <si>
     <t>Semestre</t>
   </si>
@@ -45,22 +46,1259 @@
   </si>
   <si>
     <t>Nombres</t>
+  </si>
+  <si>
+    <t>AVILES</t>
+  </si>
+  <si>
+    <t>DARZA</t>
+  </si>
+  <si>
+    <t>JAVIER ALEXANDER</t>
+  </si>
+  <si>
+    <t>SERRATO</t>
+  </si>
+  <si>
+    <t>CARMONA</t>
+  </si>
+  <si>
+    <t>AMANDA IDETH</t>
+  </si>
+  <si>
+    <t>MONTALVO</t>
+  </si>
+  <si>
+    <t>CIMA</t>
+  </si>
+  <si>
+    <t>CARLOS</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>POOT</t>
+  </si>
+  <si>
+    <t>ISABEL</t>
+  </si>
+  <si>
+    <t>CANUL</t>
+  </si>
+  <si>
+    <t>ARANA</t>
+  </si>
+  <si>
+    <t>ESTEFANY ABIGAIL</t>
+  </si>
+  <si>
+    <t>XOOL</t>
+  </si>
+  <si>
+    <t>MAY</t>
+  </si>
+  <si>
+    <t>FLOR IVETTE</t>
+  </si>
+  <si>
+    <t>BRICEÑO</t>
+  </si>
+  <si>
+    <t>ISMAEL</t>
+  </si>
+  <si>
+    <t>POOL</t>
+  </si>
+  <si>
+    <t>CHE</t>
+  </si>
+  <si>
+    <t>PEDRO PABLO</t>
+  </si>
+  <si>
+    <t>CHAN</t>
+  </si>
+  <si>
+    <t>CHIMAL</t>
+  </si>
+  <si>
+    <t>MILAGROS YASURI</t>
+  </si>
+  <si>
+    <t>JIMENEZ</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>MARIA JOSE</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
+    <t>WENDY MADAI</t>
+  </si>
+  <si>
+    <t>MUKUL</t>
+  </si>
+  <si>
+    <t>CAUICH</t>
+  </si>
+  <si>
+    <t>YAMILY GUADALUPE</t>
+  </si>
+  <si>
+    <t>TAPIA</t>
+  </si>
+  <si>
+    <t>ROSALINDA</t>
+  </si>
+  <si>
+    <t>CHIM</t>
+  </si>
+  <si>
+    <t>DOMINGUEZ</t>
+  </si>
+  <si>
+    <t>ARMANDO</t>
+  </si>
+  <si>
+    <t>MORA</t>
+  </si>
+  <si>
+    <t>SAN JUAN</t>
+  </si>
+  <si>
+    <t>ALEJANDRO</t>
+  </si>
+  <si>
+    <t>SANTOYO</t>
+  </si>
+  <si>
+    <t>OHANI YAHIR</t>
+  </si>
+  <si>
+    <t>VARGAS</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>LUNA KAROL</t>
+  </si>
+  <si>
+    <t>ORTEGA</t>
+  </si>
+  <si>
+    <t>MANUEL</t>
+  </si>
+  <si>
+    <t>MARIA DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>HERRERA</t>
+  </si>
+  <si>
+    <t>DEL ANGEL</t>
+  </si>
+  <si>
+    <t>VICTORIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>DZUL</t>
+  </si>
+  <si>
+    <t>NOE AZAEL</t>
+  </si>
+  <si>
+    <t>CASTILLO</t>
+  </si>
+  <si>
+    <t>BALAM</t>
+  </si>
+  <si>
+    <t>ELSI MARIA</t>
+  </si>
+  <si>
+    <t>TEC</t>
+  </si>
+  <si>
+    <t>CIAU</t>
+  </si>
+  <si>
+    <t>ORLANDO</t>
+  </si>
+  <si>
+    <t>MARTHA MARIA</t>
+  </si>
+  <si>
+    <t>MAGAÑA</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>ANDREA</t>
+  </si>
+  <si>
+    <t>VELEZ</t>
+  </si>
+  <si>
+    <t>PORRAS</t>
+  </si>
+  <si>
+    <t>MONICA</t>
+  </si>
+  <si>
+    <t>UITZIL</t>
+  </si>
+  <si>
+    <t>TUZ</t>
+  </si>
+  <si>
+    <t>EUNICE ESMERALDA</t>
+  </si>
+  <si>
+    <t>DZIB</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>YESLI ESTHER</t>
+  </si>
+  <si>
+    <t>KU</t>
+  </si>
+  <si>
+    <t>SHIRLEY ELIZABETH</t>
+  </si>
+  <si>
+    <t>PAT</t>
+  </si>
+  <si>
+    <t>PALOMO</t>
+  </si>
+  <si>
+    <t>FERNANDA DE JESUS</t>
+  </si>
+  <si>
+    <t>DZAB</t>
+  </si>
+  <si>
+    <t>CHRISTIAN BERNABE</t>
+  </si>
+  <si>
+    <t>PUC</t>
+  </si>
+  <si>
+    <t>HOMA</t>
+  </si>
+  <si>
+    <t>JHONATAN ISAI</t>
+  </si>
+  <si>
+    <t>DALIA MARIBEL</t>
+  </si>
+  <si>
+    <t>UICAB</t>
+  </si>
+  <si>
+    <t>AMI YESENIA</t>
+  </si>
+  <si>
+    <t>AVILEZ</t>
+  </si>
+  <si>
+    <t>MAYA</t>
+  </si>
+  <si>
+    <t>LILIANA</t>
+  </si>
+  <si>
+    <t>TUN</t>
+  </si>
+  <si>
+    <t>AQUINO</t>
+  </si>
+  <si>
+    <t>BRENDA LIZET</t>
+  </si>
+  <si>
+    <t>VARGUEZ</t>
+  </si>
+  <si>
+    <t>GLORIA MARLENE</t>
+  </si>
+  <si>
+    <t>CABRERA</t>
+  </si>
+  <si>
+    <t>LEIZI ASTRIL</t>
+  </si>
+  <si>
+    <t>OSEGUERA</t>
+  </si>
+  <si>
+    <t>ZAPOT</t>
+  </si>
+  <si>
+    <t>NATALIA</t>
+  </si>
+  <si>
+    <t>EUAN</t>
+  </si>
+  <si>
+    <t>LORENA</t>
+  </si>
+  <si>
+    <t>ARIANNA ARACELLY</t>
+  </si>
+  <si>
+    <t>ESTRELLA</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>HENRY ISAI</t>
+  </si>
+  <si>
+    <t>FUENTES</t>
+  </si>
+  <si>
+    <t>VALDEZ</t>
+  </si>
+  <si>
+    <t>MARIA JESUS</t>
+  </si>
+  <si>
+    <t>GLADYS GLADIOLA</t>
+  </si>
+  <si>
+    <t>KUMUL</t>
+  </si>
+  <si>
+    <t>LUIS FERNANDO</t>
+  </si>
+  <si>
+    <t>NOLASCO</t>
+  </si>
+  <si>
+    <t>MARILYN JAHDAI</t>
+  </si>
+  <si>
+    <t>PECH</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>JORDI GEOVANY</t>
+  </si>
+  <si>
+    <t>SUAREZ</t>
+  </si>
+  <si>
+    <t>HUEX</t>
+  </si>
+  <si>
+    <t>JOSE MANUEL</t>
+  </si>
+  <si>
+    <t>ANDRADE</t>
+  </si>
+  <si>
+    <t>HECTOR IVAN</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>CARLOS DANIEL</t>
+  </si>
+  <si>
+    <t>ABNER JESUS</t>
+  </si>
+  <si>
+    <t>TZAB</t>
+  </si>
+  <si>
+    <t>BETSAYDA MONTSERRAT</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>PACAB</t>
+  </si>
+  <si>
+    <t>SAGRARIO EVELYN</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>BRICEYDA PATRICIA</t>
+  </si>
+  <si>
+    <t>HOY</t>
+  </si>
+  <si>
+    <t>BIANCA ESTEFANIA</t>
+  </si>
+  <si>
+    <t>YEYETZI TLANESKI</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>CHULIM</t>
+  </si>
+  <si>
+    <t>JULIO ALEJANDRO</t>
+  </si>
+  <si>
+    <t>IDALY ABIGAIL</t>
+  </si>
+  <si>
+    <t>ZURI SADAI</t>
+  </si>
+  <si>
+    <t>YAMA</t>
+  </si>
+  <si>
+    <t>CHI</t>
+  </si>
+  <si>
+    <t>ISRAEL</t>
+  </si>
+  <si>
+    <t>ALVARES</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>YADIRA NAYDELIN DEL ROCIO</t>
+  </si>
+  <si>
+    <t>DAVID FERNANDO</t>
+  </si>
+  <si>
+    <t>VIANA</t>
+  </si>
+  <si>
+    <t>NATALI JOANY</t>
+  </si>
+  <si>
+    <t>CANO</t>
+  </si>
+  <si>
+    <t>MARIA DE LA FLOR</t>
+  </si>
+  <si>
+    <t>LESLIE MARIANA</t>
+  </si>
+  <si>
+    <t>AYALA</t>
+  </si>
+  <si>
+    <t>ANYELI MALIYANI</t>
+  </si>
+  <si>
+    <t>CAAMAL</t>
+  </si>
+  <si>
+    <t>ALBA ILEANA</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>MARTHA VIVIANA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>DURAN</t>
+  </si>
+  <si>
+    <t>CITLALLY ALEJANDRA</t>
+  </si>
+  <si>
+    <t>PERLA ALEXANDRA</t>
+  </si>
+  <si>
+    <t>NAHUAT</t>
+  </si>
+  <si>
+    <t>AIDY GABRIELA</t>
+  </si>
+  <si>
+    <t>WITZIL</t>
+  </si>
+  <si>
+    <t>ROSSY MAYONI</t>
+  </si>
+  <si>
+    <t>FERNANDO DANIEL</t>
+  </si>
+  <si>
+    <t>CANCHE</t>
+  </si>
+  <si>
+    <t>PABLO</t>
+  </si>
+  <si>
+    <t>JIMENA YACQUELINE</t>
+  </si>
+  <si>
+    <t>BASTO</t>
+  </si>
+  <si>
+    <t>RAFAEL ANTONIO</t>
+  </si>
+  <si>
+    <t>JONATHAN URIEL</t>
+  </si>
+  <si>
+    <t>SEGOVIA</t>
+  </si>
+  <si>
+    <t>INGRID PAOLA</t>
+  </si>
+  <si>
+    <t>BLANCA JANET</t>
+  </si>
+  <si>
+    <t>LIDIA ESTEFANIA</t>
+  </si>
+  <si>
+    <t>MARTIN</t>
+  </si>
+  <si>
+    <t>JOSUE EFRAIN</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>AKE</t>
+  </si>
+  <si>
+    <t>MATIAS</t>
+  </si>
+  <si>
+    <t>OSORIO</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>RANGEL</t>
+  </si>
+  <si>
+    <t>JESUS MANUEL</t>
+  </si>
+  <si>
+    <t>SOLIS</t>
+  </si>
+  <si>
+    <t>ANGEL GABRIEL</t>
+  </si>
+  <si>
+    <t>YEH</t>
+  </si>
+  <si>
+    <t>EDWIN ARMANDO</t>
+  </si>
+  <si>
+    <t>ALVAREZ</t>
+  </si>
+  <si>
+    <t>ALEJANDRO ANDRE</t>
+  </si>
+  <si>
+    <t>BEGOVI</t>
+  </si>
+  <si>
+    <t>GUEVARA</t>
+  </si>
+  <si>
+    <t>LUNA ASAYRA</t>
+  </si>
+  <si>
+    <t>CAMACHO</t>
+  </si>
+  <si>
+    <t>ANASTACIO</t>
+  </si>
+  <si>
+    <t>YARELI</t>
+  </si>
+  <si>
+    <t>CHUC</t>
+  </si>
+  <si>
+    <t>KAREN ANDREA</t>
+  </si>
+  <si>
+    <t>HELU</t>
+  </si>
+  <si>
+    <t>NATALIE SAKURA</t>
+  </si>
+  <si>
+    <t>HERMENEGILDO</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>LUIS ANGEL</t>
+  </si>
+  <si>
+    <t>ZAPATA</t>
+  </si>
+  <si>
+    <t>NELSON</t>
+  </si>
+  <si>
+    <t>SALAS</t>
+  </si>
+  <si>
+    <t>KENIA GUADALUPE</t>
+  </si>
+  <si>
+    <t>OCHOA</t>
+  </si>
+  <si>
+    <t>HEIDY BELEN</t>
+  </si>
+  <si>
+    <t>ALVARADO</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>JUAN PABLO</t>
+  </si>
+  <si>
+    <t>CHINO</t>
+  </si>
+  <si>
+    <t>LLANES</t>
+  </si>
+  <si>
+    <t>LESLIE TAMARA</t>
+  </si>
+  <si>
+    <t>CUTIZ</t>
+  </si>
+  <si>
+    <t>OJEDA</t>
+  </si>
+  <si>
+    <t>ANGEL MOISES</t>
+  </si>
+  <si>
+    <t>DESIDERIO</t>
+  </si>
+  <si>
+    <t>PABLO URIEL</t>
+  </si>
+  <si>
+    <t>GUZMAN</t>
+  </si>
+  <si>
+    <t>BLANCAS</t>
+  </si>
+  <si>
+    <t>SERGIO</t>
+  </si>
+  <si>
+    <t>NARANJO</t>
+  </si>
+  <si>
+    <t>RICARDO</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>BRIAN ALEXI</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>DIEGO</t>
+  </si>
+  <si>
+    <t>MONRROY</t>
+  </si>
+  <si>
+    <t>KARLA</t>
+  </si>
+  <si>
+    <t>ANGULO</t>
+  </si>
+  <si>
+    <t>CETZAL</t>
+  </si>
+  <si>
+    <t>MARIA DE LOURDES</t>
+  </si>
+  <si>
+    <t>MOH</t>
+  </si>
+  <si>
+    <t>ANGEL GUSTAVO</t>
+  </si>
+  <si>
+    <t>CETINA</t>
+  </si>
+  <si>
+    <t>IRVING EDUARDO</t>
+  </si>
+  <si>
+    <t>COHUO</t>
+  </si>
+  <si>
+    <t>EDWIN ISAI</t>
+  </si>
+  <si>
+    <t>ZULEYMA YARITZA</t>
+  </si>
+  <si>
+    <t>YATZIRI LISSETH</t>
+  </si>
+  <si>
+    <t>CHULIN</t>
+  </si>
+  <si>
+    <t>LORUAMI ALEJANDRA</t>
+  </si>
+  <si>
+    <t>SAIN ALEXIS</t>
+  </si>
+  <si>
+    <t>CUPUL</t>
+  </si>
+  <si>
+    <t>BRADLEY ANTONIO</t>
+  </si>
+  <si>
+    <t>KOO</t>
+  </si>
+  <si>
+    <t>NALLELY ABIGAIL</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>ANGEL DAVID</t>
+  </si>
+  <si>
+    <t>NOH</t>
+  </si>
+  <si>
+    <t>ALICIA DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>ARACELY</t>
+  </si>
+  <si>
+    <t>REQUENA</t>
+  </si>
+  <si>
+    <t>LORIA</t>
+  </si>
+  <si>
+    <t>AZUL VIANETH</t>
+  </si>
+  <si>
+    <t>QUETZAL</t>
+  </si>
+  <si>
+    <t>CARELI ANAHI</t>
+  </si>
+  <si>
+    <t>SANTOS</t>
+  </si>
+  <si>
+    <t>GUSTAVO ABISAI</t>
+  </si>
+  <si>
+    <t>COLLI</t>
+  </si>
+  <si>
+    <t>CRISTIAN ABIEL</t>
+  </si>
+  <si>
+    <t>UC</t>
+  </si>
+  <si>
+    <t>LUCIA DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>SANDRA GUADALUPE</t>
+  </si>
+  <si>
+    <t>BAAS</t>
+  </si>
+  <si>
+    <t>WALTER ALDHAIR</t>
+  </si>
+  <si>
+    <t>KEVIN</t>
+  </si>
+  <si>
+    <t>NAVARRETE</t>
+  </si>
+  <si>
+    <t>RODRIGO ALEXANDER</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>SOSA</t>
+  </si>
+  <si>
+    <t>ANGEL DE JESUS</t>
+  </si>
+  <si>
+    <t>MEX</t>
+  </si>
+  <si>
+    <t>LEYSI GISELY</t>
+  </si>
+  <si>
+    <t>23531054</t>
+  </si>
+  <si>
+    <t>23531056</t>
+  </si>
+  <si>
+    <t>23531057</t>
+  </si>
+  <si>
+    <t>23531058</t>
+  </si>
+  <si>
+    <t>23531059</t>
+  </si>
+  <si>
+    <t>23531061</t>
+  </si>
+  <si>
+    <t>23531063</t>
+  </si>
+  <si>
+    <t>23531067</t>
+  </si>
+  <si>
+    <t>23531070</t>
+  </si>
+  <si>
+    <t>23531072</t>
+  </si>
+  <si>
+    <t>23531073</t>
+  </si>
+  <si>
+    <t>23531074</t>
+  </si>
+  <si>
+    <t>23531075</t>
+  </si>
+  <si>
+    <t>23531079</t>
+  </si>
+  <si>
+    <t>23531081</t>
+  </si>
+  <si>
+    <t>23531082</t>
+  </si>
+  <si>
+    <t>23531083</t>
+  </si>
+  <si>
+    <t>23531086</t>
+  </si>
+  <si>
+    <t>23531089</t>
+  </si>
+  <si>
+    <t>23531097</t>
+  </si>
+  <si>
+    <t>23531100</t>
+  </si>
+  <si>
+    <t>23531101</t>
+  </si>
+  <si>
+    <t>23531104</t>
+  </si>
+  <si>
+    <t>23531105</t>
+  </si>
+  <si>
+    <t>23531106</t>
+  </si>
+  <si>
+    <t>23531107</t>
+  </si>
+  <si>
+    <t>23531108</t>
+  </si>
+  <si>
+    <t>23531110</t>
+  </si>
+  <si>
+    <t>23531112</t>
+  </si>
+  <si>
+    <t>23531113</t>
+  </si>
+  <si>
+    <t>23531114</t>
+  </si>
+  <si>
+    <t>23531116</t>
+  </si>
+  <si>
+    <t>23531117</t>
+  </si>
+  <si>
+    <t>23531118</t>
+  </si>
+  <si>
+    <t>23531119</t>
+  </si>
+  <si>
+    <t>23531121</t>
+  </si>
+  <si>
+    <t>23531123</t>
+  </si>
+  <si>
+    <t>23531126</t>
+  </si>
+  <si>
+    <t>23531127</t>
+  </si>
+  <si>
+    <t>24531313</t>
+  </si>
+  <si>
+    <t>24531314</t>
+  </si>
+  <si>
+    <t>24531315</t>
+  </si>
+  <si>
+    <t>24531316</t>
+  </si>
+  <si>
+    <t>24531317</t>
+  </si>
+  <si>
+    <t>24531318</t>
+  </si>
+  <si>
+    <t>24531319</t>
+  </si>
+  <si>
+    <t>24531320</t>
+  </si>
+  <si>
+    <t>24531321</t>
+  </si>
+  <si>
+    <t>24531322</t>
+  </si>
+  <si>
+    <t>24531323</t>
+  </si>
+  <si>
+    <t>24531324</t>
+  </si>
+  <si>
+    <t>24531325</t>
+  </si>
+  <si>
+    <t>24531326</t>
+  </si>
+  <si>
+    <t>24531327</t>
+  </si>
+  <si>
+    <t>24531328</t>
+  </si>
+  <si>
+    <t>24531329</t>
+  </si>
+  <si>
+    <t>24531330</t>
+  </si>
+  <si>
+    <t>24531331</t>
+  </si>
+  <si>
+    <t>24531332</t>
+  </si>
+  <si>
+    <t>24531333</t>
+  </si>
+  <si>
+    <t>24531334</t>
+  </si>
+  <si>
+    <t>24531335</t>
+  </si>
+  <si>
+    <t>24531336</t>
+  </si>
+  <si>
+    <t>24531337</t>
+  </si>
+  <si>
+    <t>24531338</t>
+  </si>
+  <si>
+    <t>24531339</t>
+  </si>
+  <si>
+    <t>24531340</t>
+  </si>
+  <si>
+    <t>24531341</t>
+  </si>
+  <si>
+    <t>24531342</t>
+  </si>
+  <si>
+    <t>24531343</t>
+  </si>
+  <si>
+    <t>24531344</t>
+  </si>
+  <si>
+    <t>24531345</t>
+  </si>
+  <si>
+    <t>24531346</t>
+  </si>
+  <si>
+    <t>24531347</t>
+  </si>
+  <si>
+    <t>24531348</t>
+  </si>
+  <si>
+    <t>24531349</t>
+  </si>
+  <si>
+    <t>24531350</t>
+  </si>
+  <si>
+    <t>24531351</t>
+  </si>
+  <si>
+    <t>24531352</t>
+  </si>
+  <si>
+    <t>24531353</t>
+  </si>
+  <si>
+    <t>24531354</t>
+  </si>
+  <si>
+    <t>24531355</t>
+  </si>
+  <si>
+    <t>24531356</t>
+  </si>
+  <si>
+    <t>24531357</t>
+  </si>
+  <si>
+    <t>24531358</t>
+  </si>
+  <si>
+    <t>24531359</t>
+  </si>
+  <si>
+    <t>24531360</t>
+  </si>
+  <si>
+    <t>24531361</t>
+  </si>
+  <si>
+    <t>24531362</t>
+  </si>
+  <si>
+    <t>24531363</t>
+  </si>
+  <si>
+    <t>24531364</t>
+  </si>
+  <si>
+    <t>24531365</t>
+  </si>
+  <si>
+    <t>24531366</t>
+  </si>
+  <si>
+    <t>24531367</t>
+  </si>
+  <si>
+    <t>24531368</t>
+  </si>
+  <si>
+    <t>24531369</t>
+  </si>
+  <si>
+    <t>24531370</t>
+  </si>
+  <si>
+    <t>24531371</t>
+  </si>
+  <si>
+    <t>24531372</t>
+  </si>
+  <si>
+    <t>24531373</t>
+  </si>
+  <si>
+    <t>24531374</t>
+  </si>
+  <si>
+    <t>24531375</t>
+  </si>
+  <si>
+    <t>24531376</t>
+  </si>
+  <si>
+    <t>24531377</t>
+  </si>
+  <si>
+    <t>24531378</t>
+  </si>
+  <si>
+    <t>24531379</t>
+  </si>
+  <si>
+    <t>24531380</t>
+  </si>
+  <si>
+    <t>24531381</t>
+  </si>
+  <si>
+    <t>24531382</t>
+  </si>
+  <si>
+    <t>24531383</t>
+  </si>
+  <si>
+    <t>24531384</t>
+  </si>
+  <si>
+    <t>24531385</t>
+  </si>
+  <si>
+    <t>24531386</t>
+  </si>
+  <si>
+    <t>24531387</t>
+  </si>
+  <si>
+    <t>24531388</t>
+  </si>
+  <si>
+    <t>24531389</t>
+  </si>
+  <si>
+    <t>24531390</t>
+  </si>
+  <si>
+    <t>24531391</t>
+  </si>
+  <si>
+    <t>24531392</t>
+  </si>
+  <si>
+    <t>24531393</t>
+  </si>
+  <si>
+    <t>24531394</t>
+  </si>
+  <si>
+    <t>24531395</t>
+  </si>
+  <si>
+    <t>24531396</t>
+  </si>
+  <si>
+    <t>24531405</t>
+  </si>
+  <si>
+    <t>24531406</t>
+  </si>
+  <si>
+    <t>24531407</t>
+  </si>
+  <si>
+    <t>24531408</t>
+  </si>
+  <si>
+    <t>24531409</t>
+  </si>
+  <si>
+    <t>24531410</t>
+  </si>
+  <si>
+    <t>LA PANTERA</t>
+  </si>
+  <si>
+    <t>CHUNHUHUB</t>
+  </si>
+  <si>
+    <t>PUERTO MORELOS</t>
+  </si>
+  <si>
+    <t>IGNACIO ZARAGOZA</t>
+  </si>
+  <si>
+    <t>INGENIERIA EN SISTEMAS COMPUTACIONALES</t>
+  </si>
+  <si>
+    <t>LICENCIATURA EN ADMINISTRACION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -88,9 +1326,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -373,50 +1610,3014 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="F109" sqref="F109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.453125" customWidth="1"/>
-    <col min="2" max="2" width="27.26953125" customWidth="1"/>
-    <col min="3" max="3" width="29.26953125" customWidth="1"/>
-    <col min="4" max="4" width="23.54296875" customWidth="1"/>
-    <col min="5" max="5" width="18.81640625" customWidth="1"/>
-    <col min="6" max="6" width="21.90625" customWidth="1"/>
-    <col min="7" max="7" width="20.26953125" customWidth="1"/>
-    <col min="8" max="8" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" customWidth="1"/>
+    <col min="6" max="6" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="8" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="F2" s="1"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" t="s">
+        <v>416</v>
+      </c>
+      <c r="F2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F3" t="s">
+        <v>420</v>
+      </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F5" t="s">
+        <v>421</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E6" t="s">
+        <v>417</v>
+      </c>
+      <c r="F6" t="s">
+        <v>421</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F7" t="s">
+        <v>421</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" t="s">
+        <v>417</v>
+      </c>
+      <c r="F8" t="s">
+        <v>420</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>294</v>
+      </c>
+      <c r="E9" t="s">
+        <v>417</v>
+      </c>
+      <c r="F9" t="s">
+        <v>420</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" t="s">
+        <v>417</v>
+      </c>
+      <c r="F10" t="s">
+        <v>421</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" t="s">
+        <v>417</v>
+      </c>
+      <c r="F11" t="s">
+        <v>421</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
+        <v>297</v>
+      </c>
+      <c r="E12" t="s">
+        <v>417</v>
+      </c>
+      <c r="F12" t="s">
+        <v>421</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" t="s">
+        <v>417</v>
+      </c>
+      <c r="F13" t="s">
+        <v>421</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>299</v>
+      </c>
+      <c r="E14" t="s">
+        <v>417</v>
+      </c>
+      <c r="F14" t="s">
+        <v>421</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" t="s">
+        <v>418</v>
+      </c>
+      <c r="F15" t="s">
+        <v>420</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>301</v>
+      </c>
+      <c r="E16" t="s">
+        <v>418</v>
+      </c>
+      <c r="F16" t="s">
+        <v>420</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>302</v>
+      </c>
+      <c r="E17" t="s">
+        <v>418</v>
+      </c>
+      <c r="F17" t="s">
+        <v>420</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>303</v>
+      </c>
+      <c r="E18" t="s">
+        <v>418</v>
+      </c>
+      <c r="F18" t="s">
+        <v>420</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>304</v>
+      </c>
+      <c r="E19" t="s">
+        <v>418</v>
+      </c>
+      <c r="F19" t="s">
+        <v>421</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>305</v>
+      </c>
+      <c r="E20" t="s">
+        <v>418</v>
+      </c>
+      <c r="F20" t="s">
+        <v>421</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" t="s">
+        <v>306</v>
+      </c>
+      <c r="E21" t="s">
+        <v>417</v>
+      </c>
+      <c r="F21" t="s">
+        <v>421</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E22" t="s">
+        <v>417</v>
+      </c>
+      <c r="F22" t="s">
+        <v>421</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>308</v>
+      </c>
+      <c r="E23" t="s">
+        <v>416</v>
+      </c>
+      <c r="F23" t="s">
+        <v>420</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
+        <v>309</v>
+      </c>
+      <c r="E24" t="s">
+        <v>417</v>
+      </c>
+      <c r="F24" t="s">
+        <v>420</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
+        <v>310</v>
+      </c>
+      <c r="E25" t="s">
+        <v>418</v>
+      </c>
+      <c r="F25" t="s">
+        <v>421</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>311</v>
+      </c>
+      <c r="E26" t="s">
+        <v>418</v>
+      </c>
+      <c r="F26" t="s">
+        <v>421</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>312</v>
+      </c>
+      <c r="E27" t="s">
+        <v>416</v>
+      </c>
+      <c r="F27" t="s">
+        <v>420</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s">
+        <v>313</v>
+      </c>
+      <c r="E28" t="s">
+        <v>416</v>
+      </c>
+      <c r="F28" t="s">
+        <v>421</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" t="s">
+        <v>314</v>
+      </c>
+      <c r="E29" t="s">
+        <v>416</v>
+      </c>
+      <c r="F29" t="s">
+        <v>421</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>86</v>
+      </c>
+      <c r="D30" t="s">
+        <v>315</v>
+      </c>
+      <c r="E30" t="s">
+        <v>417</v>
+      </c>
+      <c r="F30" t="s">
+        <v>420</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" t="s">
+        <v>316</v>
+      </c>
+      <c r="E31" t="s">
+        <v>417</v>
+      </c>
+      <c r="F31" t="s">
+        <v>421</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" t="s">
+        <v>317</v>
+      </c>
+      <c r="E32" t="s">
+        <v>416</v>
+      </c>
+      <c r="F32" t="s">
+        <v>420</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" t="s">
+        <v>318</v>
+      </c>
+      <c r="E33" t="s">
+        <v>416</v>
+      </c>
+      <c r="F33" t="s">
+        <v>421</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" t="s">
+        <v>319</v>
+      </c>
+      <c r="E34" t="s">
+        <v>416</v>
+      </c>
+      <c r="F34" t="s">
+        <v>421</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>320</v>
+      </c>
+      <c r="E35" t="s">
+        <v>416</v>
+      </c>
+      <c r="F35" t="s">
+        <v>421</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>321</v>
+      </c>
+      <c r="E36" t="s">
+        <v>416</v>
+      </c>
+      <c r="F36" t="s">
+        <v>421</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" t="s">
+        <v>322</v>
+      </c>
+      <c r="E37" t="s">
+        <v>417</v>
+      </c>
+      <c r="F37" t="s">
+        <v>421</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" t="s">
+        <v>323</v>
+      </c>
+      <c r="E38" t="s">
+        <v>416</v>
+      </c>
+      <c r="F38" t="s">
+        <v>420</v>
+      </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>105</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" t="s">
+        <v>324</v>
+      </c>
+      <c r="E39" t="s">
+        <v>416</v>
+      </c>
+      <c r="F39" t="s">
+        <v>421</v>
+      </c>
+      <c r="G39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" t="s">
+        <v>109</v>
+      </c>
+      <c r="D40" t="s">
+        <v>325</v>
+      </c>
+      <c r="E40" t="s">
+        <v>416</v>
+      </c>
+      <c r="F40" t="s">
+        <v>421</v>
+      </c>
+      <c r="G40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" t="s">
+        <v>326</v>
+      </c>
+      <c r="E41" t="s">
+        <v>417</v>
+      </c>
+      <c r="F41" t="s">
+        <v>420</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" t="s">
+        <v>112</v>
+      </c>
+      <c r="C42" t="s">
+        <v>113</v>
+      </c>
+      <c r="D42" t="s">
+        <v>327</v>
+      </c>
+      <c r="E42" t="s">
+        <v>417</v>
+      </c>
+      <c r="F42" t="s">
+        <v>420</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>114</v>
+      </c>
+      <c r="B43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
+      </c>
+      <c r="D43" t="s">
+        <v>328</v>
+      </c>
+      <c r="E43" t="s">
+        <v>417</v>
+      </c>
+      <c r="F43" t="s">
+        <v>420</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>117</v>
+      </c>
+      <c r="D44" t="s">
+        <v>329</v>
+      </c>
+      <c r="E44" t="s">
+        <v>417</v>
+      </c>
+      <c r="F44" t="s">
+        <v>420</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>118</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" t="s">
+        <v>330</v>
+      </c>
+      <c r="E45" t="s">
+        <v>417</v>
+      </c>
+      <c r="F45" t="s">
+        <v>420</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" t="s">
+        <v>331</v>
+      </c>
+      <c r="E46" t="s">
+        <v>417</v>
+      </c>
+      <c r="F46" t="s">
+        <v>420</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" t="s">
+        <v>124</v>
+      </c>
+      <c r="D47" t="s">
+        <v>332</v>
+      </c>
+      <c r="E47" t="s">
+        <v>417</v>
+      </c>
+      <c r="F47" t="s">
+        <v>420</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" t="s">
+        <v>333</v>
+      </c>
+      <c r="E48" t="s">
+        <v>417</v>
+      </c>
+      <c r="F48" t="s">
+        <v>420</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>128</v>
+      </c>
+      <c r="C49" t="s">
+        <v>129</v>
+      </c>
+      <c r="D49" t="s">
+        <v>334</v>
+      </c>
+      <c r="E49" t="s">
+        <v>417</v>
+      </c>
+      <c r="F49" t="s">
+        <v>420</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" t="s">
+        <v>335</v>
+      </c>
+      <c r="E50" t="s">
+        <v>417</v>
+      </c>
+      <c r="F50" t="s">
+        <v>421</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" t="s">
+        <v>336</v>
+      </c>
+      <c r="E51" t="s">
+        <v>417</v>
+      </c>
+      <c r="F51" t="s">
+        <v>421</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" t="s">
+        <v>337</v>
+      </c>
+      <c r="E52" t="s">
+        <v>417</v>
+      </c>
+      <c r="F52" t="s">
+        <v>421</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" t="s">
+        <v>338</v>
+      </c>
+      <c r="E53" t="s">
+        <v>417</v>
+      </c>
+      <c r="F53" t="s">
+        <v>421</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" t="s">
+        <v>137</v>
+      </c>
+      <c r="C54" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" t="s">
+        <v>339</v>
+      </c>
+      <c r="E54" t="s">
+        <v>417</v>
+      </c>
+      <c r="F54" t="s">
+        <v>421</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" t="s">
+        <v>340</v>
+      </c>
+      <c r="E55" t="s">
+        <v>417</v>
+      </c>
+      <c r="F55" t="s">
+        <v>421</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>33</v>
+      </c>
+      <c r="B56" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" t="s">
+        <v>341</v>
+      </c>
+      <c r="E56" t="s">
+        <v>417</v>
+      </c>
+      <c r="F56" t="s">
+        <v>421</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" t="s">
+        <v>77</v>
+      </c>
+      <c r="C57" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" t="s">
+        <v>342</v>
+      </c>
+      <c r="E57" t="s">
+        <v>417</v>
+      </c>
+      <c r="F57" t="s">
+        <v>421</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" t="s">
+        <v>343</v>
+      </c>
+      <c r="E58" t="s">
+        <v>417</v>
+      </c>
+      <c r="F58" t="s">
+        <v>421</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>122</v>
+      </c>
+      <c r="C59" t="s">
+        <v>147</v>
+      </c>
+      <c r="D59" t="s">
+        <v>344</v>
+      </c>
+      <c r="E59" t="s">
+        <v>417</v>
+      </c>
+      <c r="F59" t="s">
+        <v>421</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>22</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" t="s">
+        <v>345</v>
+      </c>
+      <c r="E60" t="s">
+        <v>417</v>
+      </c>
+      <c r="F60" t="s">
+        <v>421</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" t="s">
+        <v>150</v>
+      </c>
+      <c r="C61" t="s">
+        <v>151</v>
+      </c>
+      <c r="D61" t="s">
+        <v>346</v>
+      </c>
+      <c r="E61" t="s">
+        <v>417</v>
+      </c>
+      <c r="F61" t="s">
+        <v>421</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>152</v>
+      </c>
+      <c r="B62" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" t="s">
+        <v>154</v>
+      </c>
+      <c r="D62" t="s">
+        <v>347</v>
+      </c>
+      <c r="E62" t="s">
+        <v>416</v>
+      </c>
+      <c r="F62" t="s">
+        <v>421</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63" t="s">
+        <v>348</v>
+      </c>
+      <c r="E63" t="s">
+        <v>416</v>
+      </c>
+      <c r="F63" t="s">
+        <v>421</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" t="s">
+        <v>157</v>
+      </c>
+      <c r="D64" t="s">
+        <v>349</v>
+      </c>
+      <c r="E64" t="s">
+        <v>416</v>
+      </c>
+      <c r="F64" t="s">
+        <v>421</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>158</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" t="s">
+        <v>159</v>
+      </c>
+      <c r="D65" t="s">
+        <v>350</v>
+      </c>
+      <c r="E65" t="s">
+        <v>416</v>
+      </c>
+      <c r="F65" t="s">
+        <v>421</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" t="s">
+        <v>160</v>
+      </c>
+      <c r="D66" t="s">
+        <v>351</v>
+      </c>
+      <c r="E66" t="s">
+        <v>416</v>
+      </c>
+      <c r="F66" t="s">
+        <v>421</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" t="s">
+        <v>162</v>
+      </c>
+      <c r="D67" t="s">
+        <v>352</v>
+      </c>
+      <c r="E67" t="s">
+        <v>416</v>
+      </c>
+      <c r="F67" t="s">
+        <v>421</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" t="s">
+        <v>164</v>
+      </c>
+      <c r="D68" t="s">
+        <v>353</v>
+      </c>
+      <c r="E68" t="s">
+        <v>416</v>
+      </c>
+      <c r="F68" t="s">
+        <v>421</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+      <c r="C69" t="s">
+        <v>166</v>
+      </c>
+      <c r="D69" t="s">
+        <v>354</v>
+      </c>
+      <c r="E69" t="s">
+        <v>416</v>
+      </c>
+      <c r="F69" t="s">
+        <v>421</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D70" t="s">
+        <v>355</v>
+      </c>
+      <c r="E70" t="s">
+        <v>416</v>
+      </c>
+      <c r="F70" t="s">
+        <v>421</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>77</v>
+      </c>
+      <c r="B71" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" t="s">
+        <v>356</v>
+      </c>
+      <c r="E71" t="s">
+        <v>416</v>
+      </c>
+      <c r="F71" t="s">
+        <v>421</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>171</v>
+      </c>
+      <c r="C72" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" t="s">
+        <v>357</v>
+      </c>
+      <c r="E72" t="s">
+        <v>416</v>
+      </c>
+      <c r="F72" t="s">
+        <v>421</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>93</v>
+      </c>
+      <c r="B73" t="s">
+        <v>173</v>
+      </c>
+      <c r="C73" t="s">
+        <v>174</v>
+      </c>
+      <c r="D73" t="s">
+        <v>358</v>
+      </c>
+      <c r="E73" t="s">
+        <v>416</v>
+      </c>
+      <c r="F73" t="s">
+        <v>421</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" t="s">
+        <v>61</v>
+      </c>
+      <c r="C74" t="s">
+        <v>175</v>
+      </c>
+      <c r="D74" t="s">
+        <v>359</v>
+      </c>
+      <c r="E74" t="s">
+        <v>416</v>
+      </c>
+      <c r="F74" t="s">
+        <v>420</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>176</v>
+      </c>
+      <c r="B75" t="s">
+        <v>177</v>
+      </c>
+      <c r="C75" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" t="s">
+        <v>360</v>
+      </c>
+      <c r="E75" t="s">
+        <v>416</v>
+      </c>
+      <c r="F75" t="s">
+        <v>420</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>63</v>
+      </c>
+      <c r="B76" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" t="s">
+        <v>361</v>
+      </c>
+      <c r="E76" t="s">
+        <v>416</v>
+      </c>
+      <c r="F76" t="s">
+        <v>420</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" t="s">
+        <v>63</v>
+      </c>
+      <c r="C77" t="s">
+        <v>181</v>
+      </c>
+      <c r="D77" t="s">
+        <v>362</v>
+      </c>
+      <c r="E77" t="s">
+        <v>416</v>
+      </c>
+      <c r="F77" t="s">
+        <v>420</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78" t="s">
+        <v>182</v>
+      </c>
+      <c r="C78" t="s">
+        <v>183</v>
+      </c>
+      <c r="D78" t="s">
+        <v>363</v>
+      </c>
+      <c r="E78" t="s">
+        <v>416</v>
+      </c>
+      <c r="F78" t="s">
+        <v>420</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" t="s">
+        <v>184</v>
+      </c>
+      <c r="D79" t="s">
+        <v>364</v>
+      </c>
+      <c r="E79" t="s">
+        <v>416</v>
+      </c>
+      <c r="F79" t="s">
+        <v>420</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>53</v>
+      </c>
+      <c r="B80" t="s">
+        <v>98</v>
+      </c>
+      <c r="C80" t="s">
+        <v>185</v>
+      </c>
+      <c r="D80" t="s">
+        <v>365</v>
+      </c>
+      <c r="E80" t="s">
+        <v>416</v>
+      </c>
+      <c r="F80" t="s">
+        <v>420</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" t="s">
+        <v>27</v>
+      </c>
+      <c r="C81" t="s">
+        <v>187</v>
+      </c>
+      <c r="D81" t="s">
+        <v>366</v>
+      </c>
+      <c r="E81" t="s">
+        <v>416</v>
+      </c>
+      <c r="F81" t="s">
+        <v>420</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>188</v>
+      </c>
+      <c r="B82" t="s">
+        <v>189</v>
+      </c>
+      <c r="C82" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" t="s">
+        <v>367</v>
+      </c>
+      <c r="E82" t="s">
+        <v>416</v>
+      </c>
+      <c r="F82" t="s">
+        <v>420</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>191</v>
+      </c>
+      <c r="B83" t="s">
+        <v>144</v>
+      </c>
+      <c r="C83" t="s">
+        <v>192</v>
+      </c>
+      <c r="D83" t="s">
+        <v>368</v>
+      </c>
+      <c r="E83" t="s">
+        <v>416</v>
+      </c>
+      <c r="F83" t="s">
+        <v>420</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>193</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>194</v>
+      </c>
+      <c r="D84" t="s">
+        <v>369</v>
+      </c>
+      <c r="E84" t="s">
+        <v>416</v>
+      </c>
+      <c r="F84" t="s">
+        <v>420</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>195</v>
+      </c>
+      <c r="B85" t="s">
+        <v>28</v>
+      </c>
+      <c r="C85" t="s">
+        <v>196</v>
+      </c>
+      <c r="D85" t="s">
+        <v>370</v>
+      </c>
+      <c r="E85" t="s">
+        <v>416</v>
+      </c>
+      <c r="F85" t="s">
+        <v>420</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>77</v>
+      </c>
+      <c r="B86" t="s">
+        <v>197</v>
+      </c>
+      <c r="C86" t="s">
+        <v>198</v>
+      </c>
+      <c r="D86" t="s">
+        <v>371</v>
+      </c>
+      <c r="E86" t="s">
+        <v>416</v>
+      </c>
+      <c r="F86" t="s">
+        <v>420</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>199</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>200</v>
+      </c>
+      <c r="D87" t="s">
+        <v>372</v>
+      </c>
+      <c r="E87" t="s">
+        <v>418</v>
+      </c>
+      <c r="F87" t="s">
+        <v>421</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>201</v>
+      </c>
+      <c r="B88" t="s">
+        <v>202</v>
+      </c>
+      <c r="C88" t="s">
+        <v>203</v>
+      </c>
+      <c r="D88" t="s">
+        <v>373</v>
+      </c>
+      <c r="E88" t="s">
+        <v>418</v>
+      </c>
+      <c r="F88" t="s">
+        <v>421</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>204</v>
+      </c>
+      <c r="B89" t="s">
+        <v>205</v>
+      </c>
+      <c r="C89" t="s">
+        <v>206</v>
+      </c>
+      <c r="D89" t="s">
+        <v>374</v>
+      </c>
+      <c r="E89" t="s">
+        <v>418</v>
+      </c>
+      <c r="F89" t="s">
+        <v>421</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>207</v>
+      </c>
+      <c r="B90" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90" t="s">
+        <v>208</v>
+      </c>
+      <c r="D90" t="s">
+        <v>375</v>
+      </c>
+      <c r="E90" t="s">
+        <v>418</v>
+      </c>
+      <c r="F90" t="s">
+        <v>421</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>209</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>210</v>
+      </c>
+      <c r="D91" t="s">
+        <v>376</v>
+      </c>
+      <c r="E91" t="s">
+        <v>418</v>
+      </c>
+      <c r="F91" t="s">
+        <v>421</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>211</v>
+      </c>
+      <c r="B92" t="s">
+        <v>212</v>
+      </c>
+      <c r="C92" t="s">
+        <v>213</v>
+      </c>
+      <c r="D92" t="s">
+        <v>377</v>
+      </c>
+      <c r="E92" t="s">
+        <v>418</v>
+      </c>
+      <c r="F92" t="s">
+        <v>421</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>165</v>
+      </c>
+      <c r="B93" t="s">
+        <v>214</v>
+      </c>
+      <c r="C93" t="s">
+        <v>215</v>
+      </c>
+      <c r="D93" t="s">
+        <v>378</v>
+      </c>
+      <c r="E93" t="s">
+        <v>418</v>
+      </c>
+      <c r="F93" t="s">
+        <v>421</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>216</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C94" t="s">
+        <v>217</v>
+      </c>
+      <c r="D94" t="s">
+        <v>379</v>
+      </c>
+      <c r="E94" t="s">
+        <v>418</v>
+      </c>
+      <c r="F94" t="s">
+        <v>421</v>
+      </c>
+      <c r="G94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>149</v>
+      </c>
+      <c r="B95" t="s">
+        <v>218</v>
+      </c>
+      <c r="C95" t="s">
+        <v>219</v>
+      </c>
+      <c r="D95" t="s">
+        <v>380</v>
+      </c>
+      <c r="E95" t="s">
+        <v>418</v>
+      </c>
+      <c r="F95" t="s">
+        <v>421</v>
+      </c>
+      <c r="G95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>220</v>
+      </c>
+      <c r="B96" t="s">
+        <v>221</v>
+      </c>
+      <c r="C96" t="s">
+        <v>222</v>
+      </c>
+      <c r="D96" t="s">
+        <v>381</v>
+      </c>
+      <c r="E96" t="s">
+        <v>418</v>
+      </c>
+      <c r="F96" t="s">
+        <v>420</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>161</v>
+      </c>
+      <c r="B97" t="s">
+        <v>223</v>
+      </c>
+      <c r="C97" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" t="s">
+        <v>382</v>
+      </c>
+      <c r="E97" t="s">
+        <v>418</v>
+      </c>
+      <c r="F97" t="s">
+        <v>420</v>
+      </c>
+      <c r="G97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>19</v>
+      </c>
+      <c r="B98" t="s">
+        <v>224</v>
+      </c>
+      <c r="C98" t="s">
+        <v>225</v>
+      </c>
+      <c r="D98" t="s">
+        <v>383</v>
+      </c>
+      <c r="E98" t="s">
+        <v>418</v>
+      </c>
+      <c r="F98" t="s">
+        <v>420</v>
+      </c>
+      <c r="G98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" t="s">
+        <v>227</v>
+      </c>
+      <c r="C99" t="s">
+        <v>228</v>
+      </c>
+      <c r="D99" t="s">
+        <v>384</v>
+      </c>
+      <c r="E99" t="s">
+        <v>418</v>
+      </c>
+      <c r="F99" t="s">
+        <v>420</v>
+      </c>
+      <c r="G99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>229</v>
+      </c>
+      <c r="B100" t="s">
+        <v>53</v>
+      </c>
+      <c r="C100" t="s">
+        <v>230</v>
+      </c>
+      <c r="D100" t="s">
+        <v>385</v>
+      </c>
+      <c r="E100" t="s">
+        <v>418</v>
+      </c>
+      <c r="F100" t="s">
+        <v>420</v>
+      </c>
+      <c r="G100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>231</v>
+      </c>
+      <c r="B101" t="s">
+        <v>232</v>
+      </c>
+      <c r="C101" t="s">
+        <v>233</v>
+      </c>
+      <c r="D101" t="s">
+        <v>386</v>
+      </c>
+      <c r="E101" t="s">
+        <v>418</v>
+      </c>
+      <c r="F101" t="s">
+        <v>420</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>165</v>
+      </c>
+      <c r="B102" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" t="s">
+        <v>235</v>
+      </c>
+      <c r="D102" t="s">
+        <v>387</v>
+      </c>
+      <c r="E102" t="s">
+        <v>418</v>
+      </c>
+      <c r="F102" t="s">
+        <v>420</v>
+      </c>
+      <c r="G102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>144</v>
+      </c>
+      <c r="B103" t="s">
+        <v>236</v>
+      </c>
+      <c r="C103" t="s">
+        <v>237</v>
+      </c>
+      <c r="D103" t="s">
+        <v>388</v>
+      </c>
+      <c r="E103" t="s">
+        <v>418</v>
+      </c>
+      <c r="F103" t="s">
+        <v>420</v>
+      </c>
+      <c r="G103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>238</v>
+      </c>
+      <c r="B104" t="s">
+        <v>221</v>
+      </c>
+      <c r="C104" t="s">
+        <v>239</v>
+      </c>
+      <c r="D104" t="s">
+        <v>389</v>
+      </c>
+      <c r="E104" t="s">
+        <v>418</v>
+      </c>
+      <c r="F104" t="s">
+        <v>420</v>
+      </c>
+      <c r="G104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>125</v>
+      </c>
+      <c r="B105" t="s">
+        <v>240</v>
+      </c>
+      <c r="C105" t="s">
+        <v>241</v>
+      </c>
+      <c r="D105" t="s">
+        <v>390</v>
+      </c>
+      <c r="E105" t="s">
+        <v>418</v>
+      </c>
+      <c r="F105" t="s">
+        <v>420</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>242</v>
+      </c>
+      <c r="B106" t="s">
+        <v>243</v>
+      </c>
+      <c r="C106" t="s">
+        <v>244</v>
+      </c>
+      <c r="D106" t="s">
+        <v>391</v>
+      </c>
+      <c r="E106" t="s">
+        <v>419</v>
+      </c>
+      <c r="F106" t="s">
+        <v>421</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" t="s">
+        <v>245</v>
+      </c>
+      <c r="C107" t="s">
+        <v>246</v>
+      </c>
+      <c r="D107" t="s">
+        <v>392</v>
+      </c>
+      <c r="E107" t="s">
+        <v>419</v>
+      </c>
+      <c r="F107" t="s">
+        <v>421</v>
+      </c>
+      <c r="G107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>247</v>
+      </c>
+      <c r="B108" t="s">
+        <v>118</v>
+      </c>
+      <c r="C108" t="s">
+        <v>248</v>
+      </c>
+      <c r="D108" t="s">
+        <v>393</v>
+      </c>
+      <c r="E108" t="s">
+        <v>419</v>
+      </c>
+      <c r="F108" t="s">
+        <v>421</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" t="s">
+        <v>249</v>
+      </c>
+      <c r="C109" t="s">
+        <v>250</v>
+      </c>
+      <c r="D109" t="s">
+        <v>394</v>
+      </c>
+      <c r="E109" t="s">
+        <v>419</v>
+      </c>
+      <c r="F109" t="s">
+        <v>421</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110" t="s">
+        <v>31</v>
+      </c>
+      <c r="C110" t="s">
+        <v>251</v>
+      </c>
+      <c r="D110" t="s">
+        <v>395</v>
+      </c>
+      <c r="E110" t="s">
+        <v>419</v>
+      </c>
+      <c r="F110" t="s">
+        <v>421</v>
+      </c>
+      <c r="G110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>207</v>
+      </c>
+      <c r="B111" t="s">
+        <v>249</v>
+      </c>
+      <c r="C111" t="s">
+        <v>252</v>
+      </c>
+      <c r="D111" t="s">
+        <v>396</v>
+      </c>
+      <c r="E111" t="s">
+        <v>419</v>
+      </c>
+      <c r="F111" t="s">
+        <v>421</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>253</v>
+      </c>
+      <c r="B112" t="s">
+        <v>40</v>
+      </c>
+      <c r="C112" t="s">
+        <v>254</v>
+      </c>
+      <c r="D112" t="s">
+        <v>397</v>
+      </c>
+      <c r="E112" t="s">
+        <v>419</v>
+      </c>
+      <c r="F112" t="s">
+        <v>421</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>253</v>
+      </c>
+      <c r="B113" t="s">
+        <v>40</v>
+      </c>
+      <c r="C113" t="s">
+        <v>255</v>
+      </c>
+      <c r="D113" t="s">
+        <v>398</v>
+      </c>
+      <c r="E113" t="s">
+        <v>419</v>
+      </c>
+      <c r="F113" t="s">
+        <v>421</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>256</v>
+      </c>
+      <c r="B114" t="s">
+        <v>30</v>
+      </c>
+      <c r="C114" t="s">
+        <v>257</v>
+      </c>
+      <c r="D114" t="s">
+        <v>399</v>
+      </c>
+      <c r="E114" t="s">
+        <v>419</v>
+      </c>
+      <c r="F114" t="s">
+        <v>421</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>258</v>
+      </c>
+      <c r="B115" t="s">
+        <v>112</v>
+      </c>
+      <c r="C115" t="s">
+        <v>259</v>
+      </c>
+      <c r="D115" t="s">
+        <v>400</v>
+      </c>
+      <c r="E115" t="s">
+        <v>419</v>
+      </c>
+      <c r="F115" t="s">
+        <v>421</v>
+      </c>
+      <c r="G115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>260</v>
+      </c>
+      <c r="B116" t="s">
+        <v>249</v>
+      </c>
+      <c r="C116" t="s">
+        <v>261</v>
+      </c>
+      <c r="D116" t="s">
+        <v>401</v>
+      </c>
+      <c r="E116" t="s">
+        <v>419</v>
+      </c>
+      <c r="F116" t="s">
+        <v>421</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>262</v>
+      </c>
+      <c r="B117" t="s">
+        <v>79</v>
+      </c>
+      <c r="C117" t="s">
+        <v>263</v>
+      </c>
+      <c r="D117" t="s">
+        <v>402</v>
+      </c>
+      <c r="E117" t="s">
+        <v>419</v>
+      </c>
+      <c r="F117" t="s">
+        <v>421</v>
+      </c>
+      <c r="G117">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>17</v>
+      </c>
+      <c r="B118" t="s">
+        <v>30</v>
+      </c>
+      <c r="C118" t="s">
+        <v>264</v>
+      </c>
+      <c r="D118" t="s">
+        <v>403</v>
+      </c>
+      <c r="E118" t="s">
+        <v>419</v>
+      </c>
+      <c r="F118" t="s">
+        <v>421</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>265</v>
+      </c>
+      <c r="B119" t="s">
+        <v>266</v>
+      </c>
+      <c r="C119" t="s">
+        <v>267</v>
+      </c>
+      <c r="D119" t="s">
+        <v>404</v>
+      </c>
+      <c r="E119" t="s">
+        <v>419</v>
+      </c>
+      <c r="F119" t="s">
+        <v>421</v>
+      </c>
+      <c r="G119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>265</v>
+      </c>
+      <c r="B120" t="s">
+        <v>268</v>
+      </c>
+      <c r="C120" t="s">
+        <v>269</v>
+      </c>
+      <c r="D120" t="s">
+        <v>405</v>
+      </c>
+      <c r="E120" t="s">
+        <v>419</v>
+      </c>
+      <c r="F120" t="s">
+        <v>421</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>270</v>
+      </c>
+      <c r="B121" t="s">
+        <v>61</v>
+      </c>
+      <c r="C121" t="s">
+        <v>271</v>
+      </c>
+      <c r="D121" t="s">
+        <v>406</v>
+      </c>
+      <c r="E121" t="s">
+        <v>419</v>
+      </c>
+      <c r="F121" t="s">
+        <v>421</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>98</v>
+      </c>
+      <c r="B122" t="s">
+        <v>272</v>
+      </c>
+      <c r="C122" t="s">
+        <v>273</v>
+      </c>
+      <c r="D122" t="s">
+        <v>407</v>
+      </c>
+      <c r="E122" t="s">
+        <v>419</v>
+      </c>
+      <c r="F122" t="s">
+        <v>421</v>
+      </c>
+      <c r="G122">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>274</v>
+      </c>
+      <c r="B123" t="s">
+        <v>161</v>
+      </c>
+      <c r="C123" t="s">
+        <v>275</v>
+      </c>
+      <c r="D123" t="s">
+        <v>408</v>
+      </c>
+      <c r="E123" t="s">
+        <v>419</v>
+      </c>
+      <c r="F123" t="s">
+        <v>421</v>
+      </c>
+      <c r="G123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>274</v>
+      </c>
+      <c r="B124" t="s">
+        <v>161</v>
+      </c>
+      <c r="C124" t="s">
+        <v>276</v>
+      </c>
+      <c r="D124" t="s">
+        <v>409</v>
+      </c>
+      <c r="E124" t="s">
+        <v>419</v>
+      </c>
+      <c r="F124" t="s">
+        <v>421</v>
+      </c>
+      <c r="G124">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>277</v>
+      </c>
+      <c r="B125" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125" t="s">
+        <v>278</v>
+      </c>
+      <c r="D125" t="s">
+        <v>410</v>
+      </c>
+      <c r="E125" t="s">
+        <v>419</v>
+      </c>
+      <c r="F125" t="s">
+        <v>421</v>
+      </c>
+      <c r="G125">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>76</v>
+      </c>
+      <c r="B126" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126" t="s">
+        <v>279</v>
+      </c>
+      <c r="D126" t="s">
+        <v>411</v>
+      </c>
+      <c r="E126" t="s">
+        <v>419</v>
+      </c>
+      <c r="F126" t="s">
+        <v>421</v>
+      </c>
+      <c r="G126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>280</v>
+      </c>
+      <c r="B127" t="s">
+        <v>53</v>
+      </c>
+      <c r="C127" t="s">
+        <v>281</v>
+      </c>
+      <c r="D127" t="s">
+        <v>412</v>
+      </c>
+      <c r="E127" t="s">
+        <v>416</v>
+      </c>
+      <c r="F127" t="s">
+        <v>420</v>
+      </c>
+      <c r="G127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>243</v>
+      </c>
+      <c r="B128" t="s">
+        <v>186</v>
+      </c>
+      <c r="C128" t="s">
+        <v>282</v>
+      </c>
+      <c r="D128" t="s">
+        <v>413</v>
+      </c>
+      <c r="E128" t="s">
+        <v>416</v>
+      </c>
+      <c r="F128" t="s">
+        <v>421</v>
+      </c>
+      <c r="G128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>283</v>
+      </c>
+      <c r="B129" t="s">
+        <v>34</v>
+      </c>
+      <c r="C129" t="s">
+        <v>284</v>
+      </c>
+      <c r="D129" t="s">
+        <v>414</v>
+      </c>
+      <c r="E129" t="s">
+        <v>419</v>
+      </c>
+      <c r="F129" t="s">
+        <v>421</v>
+      </c>
+      <c r="G129">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>285</v>
+      </c>
+      <c r="B130" t="s">
+        <v>79</v>
+      </c>
+      <c r="C130" t="s">
+        <v>286</v>
+      </c>
+      <c r="D130" t="s">
+        <v>415</v>
+      </c>
+      <c r="E130" t="s">
+        <v>419</v>
+      </c>
+      <c r="F130" t="s">
+        <v>421</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
